--- a/Data_Origin/CharacterBasicSpec.xlsx
+++ b/Data_Origin/CharacterBasicSpec.xlsx
@@ -689,8 +689,8 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -858,16 +858,36 @@
       <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
@@ -918,6 +938,39 @@
       <c r="P3">
         <v>12</v>
       </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>100</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
+      <c r="Z3">
+        <v>150</v>
+      </c>
+      <c r="AA3">
+        <v>220</v>
+      </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
@@ -968,6 +1021,39 @@
       <c r="P4">
         <v>15</v>
       </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>100</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0.8</v>
+      </c>
+      <c r="Z4">
+        <v>80</v>
+      </c>
+      <c r="AA4">
+        <v>150</v>
+      </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
@@ -1018,6 +1104,39 @@
       <c r="P5">
         <v>7</v>
       </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>100</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0.8</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
+      <c r="AA5">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
@@ -1068,6 +1187,39 @@
       <c r="P6">
         <v>10</v>
       </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>100</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0.78</v>
+      </c>
+      <c r="Z6">
+        <v>120</v>
+      </c>
+      <c r="AA6">
+        <v>210</v>
+      </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
@@ -1118,6 +1270,39 @@
       <c r="P7">
         <v>15</v>
       </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>100</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="Z7">
+        <v>80</v>
+      </c>
+      <c r="AA7">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
@@ -1168,6 +1353,39 @@
       <c r="P8">
         <v>10</v>
       </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>0.5</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0.7</v>
+      </c>
+      <c r="Z8">
+        <v>80</v>
+      </c>
+      <c r="AA8">
+        <v>180</v>
+      </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
@@ -1218,6 +1436,39 @@
       <c r="P9">
         <v>20</v>
       </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Z9">
+        <v>70</v>
+      </c>
+      <c r="AA9">
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
@@ -1268,6 +1519,39 @@
       <c r="P10">
         <v>10</v>
       </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>100</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0.84</v>
+      </c>
+      <c r="Z10">
+        <v>150</v>
+      </c>
+      <c r="AA10">
+        <v>220</v>
+      </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
@@ -1321,6 +1605,36 @@
       <c r="Q11">
         <v>3</v>
       </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0.8</v>
+      </c>
+      <c r="Z11">
+        <v>100</v>
+      </c>
+      <c r="AA11">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
@@ -1371,6 +1685,39 @@
       <c r="P12">
         <v>7</v>
       </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0.8</v>
+      </c>
+      <c r="Z12">
+        <v>100</v>
+      </c>
+      <c r="AA12">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
@@ -1421,6 +1768,39 @@
       <c r="P13">
         <v>15</v>
       </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0.75</v>
+      </c>
+      <c r="Z13">
+        <v>160</v>
+      </c>
+      <c r="AA13">
+        <v>230</v>
+      </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
@@ -1471,6 +1851,39 @@
       <c r="P14">
         <v>7</v>
       </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>100</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1.5</v>
+      </c>
+      <c r="Z14">
+        <v>100</v>
+      </c>
+      <c r="AA14">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
@@ -1521,6 +1934,39 @@
       <c r="P15">
         <v>15</v>
       </c>
+      <c r="Q15">
+        <v>3.5</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>0.8</v>
+      </c>
+      <c r="Z15">
+        <v>120</v>
+      </c>
+      <c r="AA15">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
@@ -1571,8 +2017,41 @@
       <c r="P16">
         <v>10</v>
       </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <v>0.5</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>100</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0.7</v>
+      </c>
+      <c r="Z16">
+        <v>90</v>
+      </c>
+      <c r="AA16">
+        <v>180</v>
+      </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1621,8 +2100,41 @@
       <c r="P17">
         <v>10</v>
       </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>10</v>
+      </c>
+      <c r="W17">
+        <v>100</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0.8</v>
+      </c>
+      <c r="Z17">
+        <v>80</v>
+      </c>
+      <c r="AA17">
+        <v>160</v>
+      </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1671,8 +2183,41 @@
       <c r="P18">
         <v>15</v>
       </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <v>0.5</v>
+      </c>
+      <c r="V18">
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <v>100</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0.85</v>
+      </c>
+      <c r="Z18">
+        <v>120</v>
+      </c>
+      <c r="AA18">
+        <v>220</v>
+      </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1721,8 +2266,41 @@
       <c r="P19">
         <v>10</v>
       </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>10</v>
+      </c>
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>100</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0.8</v>
+      </c>
+      <c r="Z19">
+        <v>120</v>
+      </c>
+      <c r="AA19">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1771,8 +2349,41 @@
       <c r="P20">
         <v>10</v>
       </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <v>100</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1.5</v>
+      </c>
+      <c r="Z20">
+        <v>80</v>
+      </c>
+      <c r="AA20">
+        <v>150</v>
+      </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1820,6 +2431,39 @@
       </c>
       <c r="P21">
         <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>100</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>2.5</v>
+      </c>
+      <c r="Z21">
+        <v>150</v>
+      </c>
+      <c r="AA21">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Origin/CharacterBasicSpec.xlsx
+++ b/Data_Origin/CharacterBasicSpec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>NAME_JP</t>
     <phoneticPr fontId="1"/>
@@ -333,6 +333,14 @@
   </si>
   <si>
     <t>NONE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DownDurationValue</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -686,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA22" sqref="AA22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -721,9 +729,11 @@
     <col min="25" max="25" width="14.625" customWidth="1"/>
     <col min="26" max="26" width="13.125" customWidth="1"/>
     <col min="27" max="27" width="17.25" customWidth="1"/>
+    <col min="28" max="28" width="11.5" customWidth="1"/>
+    <col min="29" max="29" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,8 +815,14 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -888,8 +904,14 @@
       <c r="AA2" s="2">
         <v>0</v>
       </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -971,8 +993,14 @@
       <c r="AA3">
         <v>220</v>
       </c>
+      <c r="AB3">
+        <v>100</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1054,8 +1082,14 @@
       <c r="AA4">
         <v>150</v>
       </c>
+      <c r="AB4">
+        <v>100</v>
+      </c>
+      <c r="AC4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1137,8 +1171,14 @@
       <c r="AA5">
         <v>200</v>
       </c>
+      <c r="AB5">
+        <v>100</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1220,8 +1260,14 @@
       <c r="AA6">
         <v>210</v>
       </c>
+      <c r="AB6">
+        <v>100</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1303,8 +1349,14 @@
       <c r="AA7">
         <v>160</v>
       </c>
+      <c r="AB7">
+        <v>100</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1386,8 +1438,14 @@
       <c r="AA8">
         <v>180</v>
       </c>
+      <c r="AB8">
+        <v>100</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1469,8 +1527,14 @@
       <c r="AA9">
         <v>150</v>
       </c>
+      <c r="AB9">
+        <v>100</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1552,8 +1616,14 @@
       <c r="AA10">
         <v>220</v>
       </c>
+      <c r="AB10">
+        <v>100</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1635,8 +1705,14 @@
       <c r="AA11">
         <v>200</v>
       </c>
+      <c r="AB11">
+        <v>100</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1718,8 +1794,14 @@
       <c r="AA12">
         <v>200</v>
       </c>
+      <c r="AB12">
+        <v>100</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1801,8 +1883,14 @@
       <c r="AA13">
         <v>230</v>
       </c>
+      <c r="AB13">
+        <v>100</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1884,8 +1972,14 @@
       <c r="AA14">
         <v>150</v>
       </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1967,8 +2061,14 @@
       <c r="AA15">
         <v>200</v>
       </c>
+      <c r="AB15">
+        <v>400</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2050,8 +2150,14 @@
       <c r="AA16">
         <v>180</v>
       </c>
+      <c r="AB16">
+        <v>400</v>
+      </c>
+      <c r="AC16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2133,8 +2239,14 @@
       <c r="AA17">
         <v>160</v>
       </c>
+      <c r="AB17">
+        <v>400</v>
+      </c>
+      <c r="AC17">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2216,8 +2328,14 @@
       <c r="AA18">
         <v>220</v>
       </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>20</v>
+      </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2299,8 +2417,14 @@
       <c r="AA19">
         <v>200</v>
       </c>
+      <c r="AB19">
+        <v>10</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2382,8 +2506,14 @@
       <c r="AA20">
         <v>150</v>
       </c>
+      <c r="AB20">
+        <v>10</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2464,6 +2594,12 @@
       </c>
       <c r="AA21">
         <v>220</v>
+      </c>
+      <c r="AB21">
+        <v>100</v>
+      </c>
+      <c r="AC21">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
